--- a/combined_tips.xlsx
+++ b/combined_tips.xlsx
@@ -8070,7 +8070,7 @@
         <v>25.6430945262634</v>
       </c>
       <c r="B247" t="n">
-        <v>2.34222171284118</v>
+        <v>2.342221712841179</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -8814,7 +8814,7 @@
         <v>25.51329806184329</v>
       </c>
       <c r="B271" t="n">
-        <v>4.545052272074512</v>
+        <v>4.545052272074511</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         <v>9.579844347379019</v>
       </c>
       <c r="B328" t="n">
-        <v>3.52126194416752</v>
+        <v>3.521261944167519</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-2.86129950801432</v>
+        <v>-2.861299508014319</v>
       </c>
       <c r="B340" t="n">
         <v>2.687536097888574</v>
@@ -11046,7 +11046,7 @@
         <v>19.27572444506101</v>
       </c>
       <c r="B343" t="n">
-        <v>2.721934425105436</v>
+        <v>2.721934425105435</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>12.86586739967464</v>
       </c>
       <c r="B348" t="n">
-        <v>3.432796473094012</v>
+        <v>3.432796473094011</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>23.85932809938636</v>
+        <v>23.85932809938635</v>
       </c>
       <c r="B350" t="n">
         <v>-0.3049571495660506</v>
@@ -12534,7 +12534,7 @@
         <v>31.67821720882744</v>
       </c>
       <c r="B391" t="n">
-        <v>2.477555539545752</v>
+        <v>2.477555539545751</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>17.70684018239424</v>
       </c>
       <c r="B394" t="n">
-        <v>3.864787873783972</v>
+        <v>3.864787873783971</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>21.85491700608293</v>
+        <v>21.85491700608294</v>
       </c>
       <c r="B401" t="n">
         <v>5.248871915924497</v>
@@ -12937,7 +12937,7 @@
         <v>30.9931999754327</v>
       </c>
       <c r="B404" t="n">
-        <v>2.326860473264152</v>
+        <v>2.326860473264151</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>20.25473825857972</v>
+        <v>20.25473825857971</v>
       </c>
       <c r="B406" t="n">
         <v>0.4778837047658344</v>
@@ -13151,7 +13151,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>28.98428135411525</v>
+        <v>28.98428135411526</v>
       </c>
       <c r="B411" t="n">
         <v>5.25983932809446</v>
@@ -13588,7 +13588,7 @@
         <v>16.14955700496228</v>
       </c>
       <c r="B425" t="n">
-        <v>3.364076183199016</v>
+        <v>3.364076183199015</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>19.90348099915054</v>
       </c>
       <c r="B434" t="n">
-        <v>3.245630765756533</v>
+        <v>3.245630765756534</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -13926,7 +13926,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>22.25492094579744</v>
+        <v>22.25492094579743</v>
       </c>
       <c r="B436" t="n">
         <v>5.413542331330717</v>
@@ -14146,7 +14146,7 @@
         <v>19.65422516821902</v>
       </c>
       <c r="B443" t="n">
-        <v>2.881045763081944</v>
+        <v>2.881045763081943</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -14608,10 +14608,10 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>20.33624411307112</v>
+        <v>20.33624411307111</v>
       </c>
       <c r="B458" t="n">
-        <v>1.885763891607849</v>
+        <v>1.88576389160785</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -14642,7 +14642,7 @@
         <v>34.51284815262789</v>
       </c>
       <c r="B459" t="n">
-        <v>3.291552898150772</v>
+        <v>3.291552898150771</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>18.38616214245976</v>
+        <v>18.38616214245975</v>
       </c>
       <c r="B463" t="n">
         <v>2.34981812259909</v>
@@ -14856,7 +14856,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>24.87009628984673</v>
+        <v>24.87009628984674</v>
       </c>
       <c r="B466" t="n">
         <v>1.437995371010553</v>
@@ -15166,7 +15166,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>18.13697579108344</v>
+        <v>18.13697579108343</v>
       </c>
       <c r="B476" t="n">
         <v>2.861929783922073</v>
@@ -15231,7 +15231,7 @@
         <v>27.42260140980689</v>
       </c>
       <c r="B478" t="n">
-        <v>4.323895025500852</v>
+        <v>4.323895025500851</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>21.9467421363866</v>
+        <v>21.94674213638659</v>
       </c>
       <c r="B482" t="n">
         <v>3.497470357197753</v>
@@ -15820,7 +15820,7 @@
         <v>16.68599973943421</v>
       </c>
       <c r="B497" t="n">
-        <v>3.606905750578696</v>
+        <v>3.606905750578695</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>23.89638843778093</v>
+        <v>23.89638843778094</v>
       </c>
       <c r="B508" t="n">
         <v>3.530016101549021</v>
@@ -16344,7 +16344,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>29.62632376658669</v>
+        <v>29.6263237665867</v>
       </c>
       <c r="B514" t="n">
         <v>-0.2103689895106346</v>
@@ -16688,7 +16688,7 @@
         <v>25.9742873717627</v>
       </c>
       <c r="B525" t="n">
-        <v>3.722930261956239</v>
+        <v>3.722930261956238</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>20.03897049093049</v>
+        <v>20.0389704909305</v>
       </c>
       <c r="B545" t="n">
         <v>4.384702003814416</v>
@@ -17584,7 +17584,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>20.05864841128033</v>
+        <v>20.05864841128034</v>
       </c>
       <c r="B554" t="n">
         <v>2.372312453616727</v>
@@ -17835,7 +17835,7 @@
         <v>-1.611024557396398</v>
       </c>
       <c r="B562" t="n">
-        <v>2.938221390354557</v>
+        <v>2.938221390354558</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         <v>18.15299077050103</v>
       </c>
       <c r="B564" t="n">
-        <v>2.901587478152957</v>
+        <v>2.901587478152958</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>23.13991840088552</v>
+        <v>23.13991840088551</v>
       </c>
       <c r="B603" t="n">
         <v>5.532119244265628</v>
@@ -19261,7 +19261,7 @@
         <v>15.13706686327635</v>
       </c>
       <c r="B608" t="n">
-        <v>3.8140688237779</v>
+        <v>3.814068823777899</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
@@ -20343,7 +20343,7 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>21.74054366204569</v>
+        <v>21.7405436620457</v>
       </c>
       <c r="B643" t="n">
         <v>3.153425331261241</v>
@@ -20718,7 +20718,7 @@
         <v>11.13160855744267</v>
       </c>
       <c r="B655" t="n">
-        <v>2.905267035614848</v>
+        <v>2.905267035614847</v>
       </c>
       <c r="C655" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         <v>27.21717505804354</v>
       </c>
       <c r="B683" t="n">
-        <v>2.259710028264428</v>
+        <v>2.259710028264427</v>
       </c>
       <c r="C683" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>26.56865361122561</v>
+        <v>26.56865361122562</v>
       </c>
       <c r="B699" t="n">
         <v>4.390231749516919</v>
@@ -22330,7 +22330,7 @@
         <v>5.299637451623598</v>
       </c>
       <c r="B707" t="n">
-        <v>1.993434220351949</v>
+        <v>1.99343422035195</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
@@ -22423,7 +22423,7 @@
         <v>18.70043781711527</v>
       </c>
       <c r="B710" t="n">
-        <v>3.825451315764576</v>
+        <v>3.825451315764575</v>
       </c>
       <c r="C710" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>7.467455049231114</v>
+        <v>7.467455049231115</v>
       </c>
       <c r="B725" t="n">
         <v>2.261111642552339</v>
@@ -23195,7 +23195,7 @@
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>27.88628649587904</v>
+        <v>27.88628649587903</v>
       </c>
       <c r="B735" t="n">
         <v>2.71026314819865</v>
@@ -23505,7 +23505,7 @@
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>31.03347028373113</v>
+        <v>31.03347028373114</v>
       </c>
       <c r="B745" t="n">
         <v>3.140540205359871</v>

--- a/combined_tips.xlsx
+++ b/combined_tips.xlsx
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16.99</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1.01</v>
